--- a/Reports/CoW_At_A_Glance.xlsx
+++ b/Reports/CoW_At_A_Glance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\row-services-base\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA44F1A9-ACD4-448F-A460-4AA399DE20C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A0C57-0657-40ED-9C78-8B264B99F3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="555" windowWidth="25380" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoW PH I" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -504,12 +506,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,12 +524,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -545,6 +535,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,7 +899,7 @@
   <dimension ref="B1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AD1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,60 +931,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="20">
         <f ca="1">TODAY()</f>
-        <v>44031</v>
+        <v>44050</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -1019,36 +1021,36 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="2:30" s="32" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="59" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="59" t="s">
+      <c r="J5" s="56"/>
+      <c r="K5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="55" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="53" t="s">
         <v>15</v>
       </c>
       <c r="N5" s="46"/>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="55" t="s">
+      <c r="P5" s="58"/>
+      <c r="Q5" s="53" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="46"/>
@@ -1295,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="17">
-        <f>E8/B7</f>
+        <f>E7/D8</f>
         <v>0</v>
       </c>
       <c r="G8" s="12">
@@ -1335,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="30">
-        <f>O8/D8</f>
+        <f>Q8/$D8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="12">
@@ -1343,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="17">
-        <f>Q8/D8</f>
+        <f>Q8/$D8</f>
         <v>0</v>
       </c>
       <c r="S8" s="12">
@@ -1355,6 +1357,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="12">
+        <f>SUM(U7)</f>
         <v>0</v>
       </c>
       <c r="V8" s="17">
@@ -1362,6 +1365,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="12">
+        <f>SUM(W7)</f>
         <v>0</v>
       </c>
       <c r="X8" s="17">
@@ -1369,6 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="12">
+        <f>SUM(Y7)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="17">
@@ -1376,6 +1381,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="12">
+        <f>SUM(AA7)</f>
         <v>0</v>
       </c>
       <c r="AB8" s="17">
@@ -1383,6 +1389,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="12">
+        <f>SUM(AC7)</f>
         <v>0</v>
       </c>
       <c r="AD8" s="17">
@@ -1453,6 +1460,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F8 H8 J8 L8 N8 P8 R8" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1794,7 +1804,7 @@
   <dimension ref="B2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,26 +1816,26 @@
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="65"/>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="49" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="31"/>
       <c r="V3" s="31"/>
     </row>
@@ -1925,12 +1935,12 @@
       <c r="P5" s="29"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="18">
-        <f ca="1">Q5/R5</f>
+        <f>Q5/D5</f>
         <v>0</v>
       </c>
       <c r="S5" s="15"/>
       <c r="T5" s="18">
-        <f ca="1">S5/T5</f>
+        <f>S5/D5</f>
         <v>0</v>
       </c>
       <c r="U5" s="29"/>
@@ -1992,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="17">
-        <f ca="1">Q6/R6</f>
+        <f>Q6/$D6</f>
         <v>0</v>
       </c>
       <c r="S6" s="12">
@@ -2000,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="17">
-        <f ca="1">S6/T6</f>
+        <f>S6/$D6</f>
         <v>0</v>
       </c>
       <c r="U6" s="26"/>
